--- a/biology/Médecine/Paul_Santy/Paul_Santy.xlsx
+++ b/biology/Médecine/Paul_Santy/Paul_Santy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Santy, né à Die le 16 avril 1887 et mort à Écully le 20 janvier 1970[1], est un médecin français. Il fut, selon Marcel Dargent, dans le cadre du Pavillon O de l'hôpital Grange-Blanche à Lyon, l'un « des derniers représentants de ces grands patrons qui menèrent de front les tâches de la chirurgie générale et celle de la cancérologie »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Santy, né à Die le 16 avril 1887 et mort à Écully le 20 janvier 1970, est un médecin français. Il fut, selon Marcel Dargent, dans le cadre du Pavillon O de l'hôpital Grange-Blanche à Lyon, l'un « des derniers représentants de ces grands patrons qui menèrent de front les tâches de la chirurgie générale et celle de la cancérologie ».
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né dans la Drôme, Paul Santy effectue ses études secondaires dans la Loire, où il envisage un temps d'intégrer l'École des mines de Saint-Étienne[3]. Devenu étudiant en médecine à Lyon, il reçoit l'influence de maîtres tels qu'Antonin Poncet, René Leriche, Xavier Delore et Léon Bérard dont il fut le chef de clinique et auprès de qui il se spécialisa en chirurgie pulmonaire.
-En 1941, il opère avec succès Henri Matisse d'un cancer du duodénum à la clinique du Parc (Lyon)[4].
-Le 1er décembre 1953, il élu membre de l'académie des Sciences, Belles-Lettres et Arts de Lyon[5].
-En 1947, au retour d'un long séjour outre-atlantique à Baltimore auprès du chirurgien américain Alfred Blalock[6], il se lance dans des interventions de pointe comme celles sur les « enfants bleus », la résection de l'aorte, et en 1956, l'opération à cœur ouvert[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né dans la Drôme, Paul Santy effectue ses études secondaires dans la Loire, où il envisage un temps d'intégrer l'École des mines de Saint-Étienne. Devenu étudiant en médecine à Lyon, il reçoit l'influence de maîtres tels qu'Antonin Poncet, René Leriche, Xavier Delore et Léon Bérard dont il fut le chef de clinique et auprès de qui il se spécialisa en chirurgie pulmonaire.
+En 1941, il opère avec succès Henri Matisse d'un cancer du duodénum à la clinique du Parc (Lyon).
+Le 1er décembre 1953, il élu membre de l'académie des Sciences, Belles-Lettres et Arts de Lyon.
+En 1947, au retour d'un long séjour outre-atlantique à Baltimore auprès du chirurgien américain Alfred Blalock, il se lance dans des interventions de pointe comme celles sur les « enfants bleus », la résection de l'aorte, et en 1956, l'opération à cœur ouvert.
 </t>
         </is>
       </c>
